--- a/public/import/jadwal siswa.xlsx
+++ b/public/import/jadwal siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MASTER\Xampp\htdocs\examz\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21681085-8CBC-433E-B3A1-FAB19AFDD62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2110439C-1A79-4226-A4A7-06DF397354C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10890" xr2:uid="{A0816873-F919-4E8D-9E8D-0F29877BB983}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Jadwal</t>
+    <t>Siswa</t>
   </si>
   <si>
-    <t>Siswa</t>
+    <t>Ruangan</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
